--- a/examples/dynamic.xlsx
+++ b/examples/dynamic.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trial1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -437,7 +437,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sumo__Plant__CSTR3__param__DOSP</t>
+          <t>Sumo__Time</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -452,22 +452,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Sumo__Plant__Effluent__TCOD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sumo__Plant__Effluent__SPO4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sumo__Plant__Effluent__TCOD</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Sumo__Plant__Influent__param__Q</t>
+          <t>Sumo__Plant__CSTR3__param__DOSP</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Sumo__Plant__Influent__param__TCOD</t>
+          <t>Sumo__Plant__Influent__param__Q</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Sumo__Time</t>
+          <t>Sumo__Plant__Influent__param__TCOD</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0.108068</v>
@@ -495,22 +495,22 @@
         <v>22.9643</v>
       </c>
       <c r="E2" t="n">
+        <v>31.561951836721</v>
+      </c>
+      <c r="F2" t="n">
         <v>2.83427</v>
       </c>
-      <c r="F2" t="n">
-        <v>31.561951836721</v>
-      </c>
       <c r="G2" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>420</v>
+        <v>24000</v>
       </c>
       <c r="I2" t="n">
         <v>34.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C3" t="n">
         <v>0.1064281557307706</v>
@@ -527,22 +527,22 @@
         <v>22.96839359814829</v>
       </c>
       <c r="E3" t="n">
+        <v>31.56494505973207</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.833684012803459</v>
       </c>
-      <c r="F3" t="n">
-        <v>31.56494505973207</v>
-      </c>
       <c r="G3" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>400</v>
+        <v>24000</v>
       </c>
       <c r="I3" t="n">
         <v>36.87502603515789</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04166666666666666</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C4" t="n">
         <v>0.1030709701860958</v>
@@ -559,22 +559,22 @@
         <v>22.98143251615403</v>
       </c>
       <c r="E4" t="n">
+        <v>31.57082242639817</v>
+      </c>
+      <c r="F4" t="n">
         <v>2.832242436031028</v>
       </c>
-      <c r="F4" t="n">
-        <v>31.57082242639817</v>
-      </c>
       <c r="G4" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>437.0088426598019</v>
+        <v>24000</v>
       </c>
       <c r="I4" t="n">
         <v>37.39500845770906</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08333333333333333</v>
+        <v>437.0088426598019</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0.125</v>
       </c>
       <c r="C5" t="n">
         <v>0.09985134930475995</v>
@@ -591,22 +591,22 @@
         <v>23.00185171091044</v>
       </c>
       <c r="E5" t="n">
+        <v>31.57675535476884</v>
+      </c>
+      <c r="F5" t="n">
         <v>2.830088504476467</v>
       </c>
-      <c r="F5" t="n">
-        <v>31.57675535476884</v>
-      </c>
       <c r="G5" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>449.7703978875883</v>
+        <v>24000</v>
       </c>
       <c r="I5" t="n">
         <v>37.90653282700886</v>
       </c>
       <c r="J5" t="n">
-        <v>0.125</v>
+        <v>449.7703978875883</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C6" t="n">
         <v>0.09720343458982923</v>
@@ -623,22 +623,22 @@
         <v>23.02847784518237</v>
       </c>
       <c r="E6" t="n">
+        <v>31.58279865498438</v>
+      </c>
+      <c r="F6" t="n">
         <v>2.82704337371662</v>
       </c>
-      <c r="F6" t="n">
-        <v>31.58279865498438</v>
-      </c>
       <c r="G6" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>429.9236072051978</v>
+        <v>24000</v>
       </c>
       <c r="I6" t="n">
         <v>38.39916096737734</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1666666666666667</v>
+        <v>429.9236072051978</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="C7" t="n">
         <v>0.09516715527284446</v>
@@ -655,22 +655,22 @@
         <v>23.06045102801725</v>
       </c>
       <c r="E7" t="n">
+        <v>31.58961508370658</v>
+      </c>
+      <c r="F7" t="n">
         <v>2.822839937975869</v>
       </c>
-      <c r="F7" t="n">
-        <v>31.58961508370658</v>
-      </c>
       <c r="G7" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>390.4716018562257</v>
+        <v>24000</v>
       </c>
       <c r="I7" t="n">
         <v>38.86398078551927</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2083333333333333</v>
+        <v>390.4716018562257</v>
       </c>
     </row>
     <row r="8">
@@ -678,7 +678,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="C8" t="n">
         <v>0.09371236079357843</v>
@@ -687,22 +687,22 @@
         <v>23.09766839184408</v>
       </c>
       <c r="E8" t="n">
+        <v>31.59675592062917</v>
+      </c>
+      <c r="F8" t="n">
         <v>2.81738923880865</v>
       </c>
-      <c r="F8" t="n">
-        <v>31.59675592062917</v>
-      </c>
       <c r="G8" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>357.262369638058</v>
+        <v>24000</v>
       </c>
       <c r="I8" t="n">
         <v>39.29416994502095</v>
       </c>
       <c r="J8" t="n">
-        <v>0.25</v>
+        <v>357.262369638058</v>
       </c>
     </row>
     <row r="9">
@@ -710,7 +710,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="C9" t="n">
         <v>0.09276707840994398</v>
@@ -719,22 +719,22 @@
         <v>23.1412756212138</v>
       </c>
       <c r="E9" t="n">
+        <v>31.60207985885866</v>
+      </c>
+      <c r="F9" t="n">
         <v>2.810931377994518</v>
       </c>
-      <c r="F9" t="n">
-        <v>31.60207985885866</v>
-      </c>
       <c r="G9" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>352.0537862668431</v>
+        <v>24000</v>
       </c>
       <c r="I9" t="n">
         <v>39.68524783499018</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2916666666666667</v>
+        <v>352.0537862668431</v>
       </c>
     </row>
     <row r="10">
@@ -742,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C10" t="n">
         <v>0.09220562133646502</v>
@@ -751,22 +751,22 @@
         <v>23.19352397516562</v>
       </c>
       <c r="E10" t="n">
+        <v>31.6025597609242</v>
+      </c>
+      <c r="F10" t="n">
         <v>2.804001737414275</v>
       </c>
-      <c r="F10" t="n">
-        <v>31.6025597609242</v>
-      </c>
       <c r="G10" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>378.2583880187462</v>
+        <v>24000</v>
       </c>
       <c r="I10" t="n">
         <v>40.03502933453397</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3333333333333333</v>
+        <v>378.2583880187462</v>
       </c>
     </row>
     <row r="11">
@@ -774,7 +774,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0.375</v>
       </c>
       <c r="C11" t="n">
         <v>0.09186420490459109</v>
@@ -783,22 +783,22 @@
         <v>23.25687145588787</v>
       </c>
       <c r="E11" t="n">
+        <v>31.59598110324071</v>
+      </c>
+      <c r="F11" t="n">
         <v>2.797201164482032</v>
       </c>
-      <c r="F11" t="n">
-        <v>31.59598110324071</v>
-      </c>
       <c r="G11" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>418.707561528561</v>
+        <v>24000</v>
       </c>
       <c r="I11" t="n">
         <v>40.34334909233304</v>
       </c>
       <c r="J11" t="n">
-        <v>0.375</v>
+        <v>418.707561528561</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C12" t="n">
         <v>0.09157955663251464</v>
@@ -815,22 +815,22 @@
         <v>23.33287342014988</v>
       </c>
       <c r="E12" t="n">
+        <v>31.58224968333027</v>
+      </c>
+      <c r="F12" t="n">
         <v>2.790913933737724</v>
       </c>
-      <c r="F12" t="n">
-        <v>31.58224968333027</v>
-      </c>
       <c r="G12" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>446.899998838737</v>
+        <v>24000</v>
       </c>
       <c r="I12" t="n">
         <v>40.61165006452693</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4166666666666667</v>
+        <v>446.899998838737</v>
       </c>
     </row>
     <row r="13">
@@ -838,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C13" t="n">
         <v>0.09124537043215696</v>
@@ -847,22 +847,22 @@
         <v>23.42147223217825</v>
       </c>
       <c r="E13" t="n">
+        <v>31.56345650691933</v>
+      </c>
+      <c r="F13" t="n">
         <v>2.78517512915165</v>
       </c>
-      <c r="F13" t="n">
-        <v>31.56345650691933</v>
-      </c>
       <c r="G13" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>444.3647054047347</v>
+        <v>24000</v>
       </c>
       <c r="I13" t="n">
         <v>40.84252681410977</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4583333333333333</v>
+        <v>444.3647054047347</v>
       </c>
     </row>
     <row r="14">
@@ -870,7 +870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C14" t="n">
         <v>0.09086796959594298</v>
@@ -879,22 +879,22 @@
         <v>23.52118570208693</v>
       </c>
       <c r="E14" t="n">
+        <v>31.54272314376862</v>
+      </c>
+      <c r="F14" t="n">
         <v>2.779746679062568</v>
       </c>
-      <c r="F14" t="n">
-        <v>31.54272314376862</v>
-      </c>
       <c r="G14" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>412.7627433998259</v>
+        <v>24000</v>
       </c>
       <c r="I14" t="n">
         <v>41.03929290972543</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>412.7627433998259</v>
       </c>
     </row>
     <row r="15">
@@ -902,7 +902,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C15" t="n">
         <v>0.09053295779646799</v>
@@ -911,22 +911,22 @@
         <v>23.62985950357082</v>
       </c>
       <c r="E15" t="n">
+        <v>31.52252965030605</v>
+      </c>
+      <c r="F15" t="n">
         <v>2.774317316334769</v>
       </c>
-      <c r="F15" t="n">
-        <v>31.52252965030605</v>
-      </c>
       <c r="G15" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>372.7989444555315</v>
+        <v>24000</v>
       </c>
       <c r="I15" t="n">
         <v>41.20561450816022</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5416666666666666</v>
+        <v>372.7989444555315</v>
       </c>
     </row>
     <row r="16">
@@ -934,7 +934,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C16" t="n">
         <v>0.09033233175109111</v>
@@ -943,22 +943,22 @@
         <v>23.74567463681486</v>
       </c>
       <c r="E16" t="n">
+        <v>31.50340242599384</v>
+      </c>
+      <c r="F16" t="n">
         <v>2.76872483206241</v>
       </c>
-      <c r="F16" t="n">
-        <v>31.50340242599384</v>
-      </c>
       <c r="G16" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>350.6566110000063</v>
+        <v>24000</v>
       </c>
       <c r="I16" t="n">
         <v>41.34522757112066</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5833333333333334</v>
+        <v>350.6566110000063</v>
       </c>
     </row>
     <row r="17">
@@ -966,7 +966,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0.625</v>
       </c>
       <c r="C17" t="n">
         <v>0.09030816852268812</v>
@@ -975,22 +975,22 @@
         <v>23.86780215786275</v>
       </c>
       <c r="E17" t="n">
+        <v>31.48387286881846</v>
+      </c>
+      <c r="F17" t="n">
         <v>2.763069926110597</v>
       </c>
-      <c r="F17" t="n">
-        <v>31.48387286881846</v>
-      </c>
       <c r="G17" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>360.8428576881706</v>
+        <v>24000</v>
       </c>
       <c r="I17" t="n">
         <v>41.46173837230771</v>
       </c>
       <c r="J17" t="n">
-        <v>0.625</v>
+        <v>360.8428576881706</v>
       </c>
     </row>
     <row r="18">
@@ -998,7 +998,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18" t="n">
         <v>0.09041381144181466</v>
@@ -1007,22 +1007,22 @@
         <v>23.99628721544676</v>
       </c>
       <c r="E18" t="n">
+        <v>31.46180406644998</v>
+      </c>
+      <c r="F18" t="n">
         <v>2.757630212139086</v>
       </c>
-      <c r="F18" t="n">
-        <v>31.46180406644998</v>
-      </c>
       <c r="G18" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>396.68390513244</v>
+        <v>24000</v>
       </c>
       <c r="I18" t="n">
         <v>41.55849659441635</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6666666666666666</v>
+        <v>396.68390513244</v>
       </c>
     </row>
     <row r="19">
@@ -1030,7 +1030,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C19" t="n">
         <v>0.09051601395948336</v>
@@ -1039,22 +1039,22 @@
         <v>24.13138488090246</v>
       </c>
       <c r="E19" t="n">
+        <v>31.43604262782155</v>
+      </c>
+      <c r="F19" t="n">
         <v>2.752660526752944</v>
       </c>
-      <c r="F19" t="n">
-        <v>31.43604262782155</v>
-      </c>
       <c r="G19" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>434.6975767288527</v>
+        <v>24000</v>
       </c>
       <c r="I19" t="n">
         <v>41.63852599249233</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7083333333333334</v>
+        <v>434.6975767288527</v>
       </c>
     </row>
     <row r="20">
@@ -1062,7 +1062,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="C20" t="n">
         <v>0.090491199099966</v>
@@ -1071,22 +1071,22 @@
         <v>24.27273909671168</v>
       </c>
       <c r="E20" t="n">
+        <v>31.40735000624564</v>
+      </c>
+      <c r="F20" t="n">
         <v>2.748233815838297</v>
       </c>
-      <c r="F20" t="n">
-        <v>31.40735000624564</v>
-      </c>
       <c r="G20" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>449.9782457325439</v>
+        <v>24000</v>
       </c>
       <c r="I20" t="n">
         <v>41.70449728402907</v>
       </c>
       <c r="J20" t="n">
-        <v>0.75</v>
+        <v>449.9782457325439</v>
       </c>
     </row>
     <row r="21">
@@ -1094,7 +1094,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C21" t="n">
         <v>0.09030464991008195</v>
@@ -1103,22 +1103,22 @@
         <v>24.41902174796436</v>
       </c>
       <c r="E21" t="n">
+        <v>31.37807870849812</v>
+      </c>
+      <c r="F21" t="n">
         <v>2.744213473652511</v>
       </c>
-      <c r="F21" t="n">
-        <v>31.37807870849812</v>
-      </c>
       <c r="G21" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>432.5143920078559</v>
+        <v>24000</v>
       </c>
       <c r="I21" t="n">
         <v>41.75872978582331</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7916666666666666</v>
+        <v>432.5143920078559</v>
       </c>
     </row>
     <row r="22">
@@ -1126,7 +1126,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C22" t="n">
         <v>0.09000351307427433</v>
@@ -1135,22 +1135,22 @@
         <v>24.56820457757008</v>
       </c>
       <c r="E22" t="n">
+        <v>31.35083700377938</v>
+      </c>
+      <c r="F22" t="n">
         <v>2.740359701305764</v>
       </c>
-      <c r="F22" t="n">
-        <v>31.35083700377938</v>
-      </c>
       <c r="G22" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>393.7479048574532</v>
+        <v>24000</v>
       </c>
       <c r="I22" t="n">
         <v>41.80321103048601</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8333333333333334</v>
+        <v>393.7479048574532</v>
       </c>
     </row>
     <row r="23">
@@ -1158,7 +1158,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0.875</v>
       </c>
       <c r="C23" t="n">
         <v>0.08969424922832903</v>
@@ -1167,22 +1167,22 @@
         <v>24.71832188430381</v>
       </c>
       <c r="E23" t="n">
+        <v>31.32690579505059</v>
+      </c>
+      <c r="F23" t="n">
         <v>2.7365180125379</v>
       </c>
-      <c r="F23" t="n">
-        <v>31.32690579505059</v>
-      </c>
       <c r="G23" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>359.0776373421028</v>
+        <v>24000</v>
       </c>
       <c r="I23" t="n">
         <v>41.83962635868411</v>
       </c>
       <c r="J23" t="n">
-        <v>0.875</v>
+        <v>359.0776373421028</v>
       </c>
     </row>
     <row r="24">
@@ -1190,7 +1190,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C24" t="n">
         <v>0.089488967624633</v>
@@ -1199,22 +1199,22 @@
         <v>24.8681712361513</v>
       </c>
       <c r="E24" t="n">
+        <v>31.30556276111025</v>
+      </c>
+      <c r="F24" t="n">
         <v>2.732732227045477</v>
       </c>
-      <c r="F24" t="n">
-        <v>31.30556276111025</v>
-      </c>
       <c r="G24" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>351.2186997265921</v>
+        <v>24000</v>
       </c>
       <c r="I24" t="n">
         <v>41.86939289470547</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9166666666666666</v>
+        <v>351.2186997265921</v>
       </c>
     </row>
     <row r="25">
@@ -1222,7 +1222,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="C25" t="n">
         <v>0.0894328697514736</v>
@@ -1231,22 +1231,22 @@
         <v>25.01747370007989</v>
       </c>
       <c r="E25" t="n">
+        <v>31.28467889667604</v>
+      </c>
+      <c r="F25" t="n">
         <v>2.729200967856673</v>
       </c>
-      <c r="F25" t="n">
-        <v>31.28467889667604</v>
-      </c>
       <c r="G25" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>375.3200754856339</v>
+        <v>24000</v>
       </c>
       <c r="I25" t="n">
         <v>41.89369423113856</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9583333333333334</v>
+        <v>375.3200754856339</v>
       </c>
     </row>
     <row r="26">
@@ -1254,7 +1254,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0.08947373553235279</v>
@@ -1263,26 +1263,26 @@
         <v>25.1664682273917</v>
       </c>
       <c r="E26" t="n">
+        <v>31.26222667022558</v>
+      </c>
+      <c r="F26" t="n">
         <v>2.726123759491694</v>
       </c>
-      <c r="F26" t="n">
-        <v>31.26222667022558</v>
-      </c>
       <c r="G26" t="n">
-        <v>24000</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>415.5911334203973</v>
+        <v>24000</v>
       </c>
       <c r="I26" t="n">
         <v>41.91351357662474</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>415.5911334203973</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1303,7 +1303,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sumo__Plant__CSTR3__param__DOSP</t>
+          <t>Sumo__Time</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1318,22 +1318,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Sumo__Plant__Effluent__TCOD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sumo__Plant__Effluent__SPO4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sumo__Plant__Effluent__TCOD</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Sumo__Plant__Influent__param__Q</t>
+          <t>Sumo__Plant__CSTR3__param__DOSP</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Sumo__Plant__Influent__param__TCOD</t>
+          <t>Sumo__Plant__Influent__param__Q</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Sumo__Time</t>
+          <t>Sumo__Plant__Influent__param__TCOD</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0.108068</v>
@@ -1361,22 +1361,22 @@
         <v>22.9643</v>
       </c>
       <c r="E2" t="n">
+        <v>31.561951836721</v>
+      </c>
+      <c r="F2" t="n">
         <v>2.83427</v>
       </c>
-      <c r="F2" t="n">
-        <v>31.561951836721</v>
-      </c>
       <c r="G2" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>420</v>
+        <v>20000</v>
       </c>
       <c r="I2" t="n">
         <v>34.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3">
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C3" t="n">
         <v>0.1082101549673056</v>
@@ -1393,22 +1393,22 @@
         <v>22.96414445677701</v>
       </c>
       <c r="E3" t="n">
+        <v>31.56165722581643</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.834422625504171</v>
       </c>
-      <c r="F3" t="n">
-        <v>31.56165722581643</v>
-      </c>
       <c r="G3" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>400</v>
+        <v>20000</v>
       </c>
       <c r="I3" t="n">
         <v>36.87502603515789</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04166666666666666</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4">
@@ -1416,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C4" t="n">
         <v>0.1083858271107529</v>
@@ -1425,22 +1425,22 @@
         <v>22.96485848214017</v>
       </c>
       <c r="E4" t="n">
+        <v>31.56105745555057</v>
+      </c>
+      <c r="F4" t="n">
         <v>2.834859390148814</v>
       </c>
-      <c r="F4" t="n">
-        <v>31.56105745555057</v>
-      </c>
       <c r="G4" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>437.0088426598019</v>
+        <v>20000</v>
       </c>
       <c r="I4" t="n">
         <v>37.39500845770906</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08333333333333333</v>
+        <v>437.0088426598019</v>
       </c>
     </row>
     <row r="5">
@@ -1448,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="C5" t="n">
         <v>0.1085704110697305</v>
@@ -1457,22 +1457,22 @@
         <v>22.96762098921711</v>
       </c>
       <c r="E5" t="n">
+        <v>31.56020441930989</v>
+      </c>
+      <c r="F5" t="n">
         <v>2.835547525881972</v>
       </c>
-      <c r="F5" t="n">
-        <v>31.56020441930989</v>
-      </c>
       <c r="G5" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>449.7703978875883</v>
+        <v>20000</v>
       </c>
       <c r="I5" t="n">
         <v>37.90653282700886</v>
       </c>
       <c r="J5" t="n">
-        <v>0.125</v>
+        <v>449.7703978875883</v>
       </c>
     </row>
     <row r="6">
@@ -1480,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C6" t="n">
         <v>0.1087492711015857</v>
@@ -1489,22 +1489,22 @@
         <v>22.97353831178663</v>
       </c>
       <c r="E6" t="n">
+        <v>31.55968611455832</v>
+      </c>
+      <c r="F6" t="n">
         <v>2.836369507993972</v>
       </c>
-      <c r="F6" t="n">
-        <v>31.55968611455832</v>
-      </c>
       <c r="G6" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>429.9236072051978</v>
+        <v>20000</v>
       </c>
       <c r="I6" t="n">
         <v>38.39916096737734</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1666666666666667</v>
+        <v>429.9236072051978</v>
       </c>
     </row>
     <row r="7">
@@ -1512,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="C7" t="n">
         <v>0.1089163255686977</v>
@@ -1521,22 +1521,22 @@
         <v>22.98357721057094</v>
       </c>
       <c r="E7" t="n">
+        <v>31.56014431762879</v>
+      </c>
+      <c r="F7" t="n">
         <v>2.837152416649016</v>
       </c>
-      <c r="F7" t="n">
-        <v>31.56014431762879</v>
-      </c>
       <c r="G7" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>390.4716018562257</v>
+        <v>20000</v>
       </c>
       <c r="I7" t="n">
         <v>38.86398078551927</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2083333333333333</v>
+        <v>390.4716018562257</v>
       </c>
     </row>
     <row r="8">
@@ -1544,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C8" t="n">
         <v>0.1091029566324937</v>
@@ -1553,22 +1553,22 @@
         <v>22.99877456396749</v>
       </c>
       <c r="E8" t="n">
+        <v>31.56146379623175</v>
+      </c>
+      <c r="F8" t="n">
         <v>2.837792516986126</v>
       </c>
-      <c r="F8" t="n">
-        <v>31.56146379623175</v>
-      </c>
       <c r="G8" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>357.262369638058</v>
+        <v>20000</v>
       </c>
       <c r="I8" t="n">
         <v>39.29416994502095</v>
       </c>
       <c r="J8" t="n">
-        <v>0.25</v>
+        <v>357.262369638058</v>
       </c>
     </row>
     <row r="9">
@@ -1576,7 +1576,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="C9" t="n">
         <v>0.1093388081519714</v>
@@ -1585,22 +1585,22 @@
         <v>23.02056513041934</v>
       </c>
       <c r="E9" t="n">
+        <v>31.56240888124437</v>
+      </c>
+      <c r="F9" t="n">
         <v>2.838354791562287</v>
       </c>
-      <c r="F9" t="n">
-        <v>31.56240888124437</v>
-      </c>
       <c r="G9" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>352.0537862668431</v>
+        <v>20000</v>
       </c>
       <c r="I9" t="n">
         <v>39.68524783499018</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2916666666666667</v>
+        <v>352.0537862668431</v>
       </c>
     </row>
     <row r="10">
@@ -1608,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C10" t="n">
         <v>0.1096149784465969</v>
@@ -1617,22 +1617,22 @@
         <v>23.05078052541267</v>
       </c>
       <c r="E10" t="n">
+        <v>31.56104026083202</v>
+      </c>
+      <c r="F10" t="n">
         <v>2.83907480318183</v>
       </c>
-      <c r="F10" t="n">
-        <v>31.56104026083202</v>
-      </c>
       <c r="G10" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>378.2583880187462</v>
+        <v>20000</v>
       </c>
       <c r="I10" t="n">
         <v>40.03502933453397</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3333333333333333</v>
+        <v>378.2583880187462</v>
       </c>
     </row>
     <row r="11">
@@ -1640,7 +1640,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="C11" t="n">
         <v>0.1098780157951409</v>
@@ -1649,22 +1649,22 @@
         <v>23.09120999316065</v>
       </c>
       <c r="E11" t="n">
+        <v>31.55571646157686</v>
+      </c>
+      <c r="F11" t="n">
         <v>2.840242305154394</v>
       </c>
-      <c r="F11" t="n">
-        <v>31.55571646157686</v>
-      </c>
       <c r="G11" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>418.707561528561</v>
+        <v>20000</v>
       </c>
       <c r="I11" t="n">
         <v>40.34334909233304</v>
       </c>
       <c r="J11" t="n">
-        <v>0.375</v>
+        <v>418.707561528561</v>
       </c>
     </row>
     <row r="12">
@@ -1672,7 +1672,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C12" t="n">
         <v>0.1100528691724243</v>
@@ -1681,22 +1681,22 @@
         <v>23.14301310059135</v>
       </c>
       <c r="E12" t="n">
+        <v>31.54596955724275</v>
+      </c>
+      <c r="F12" t="n">
         <v>2.8420406908217</v>
       </c>
-      <c r="F12" t="n">
-        <v>31.54596955724275</v>
-      </c>
       <c r="G12" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>446.899998838737</v>
+        <v>20000</v>
       </c>
       <c r="I12" t="n">
         <v>40.61165006452693</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4166666666666667</v>
+        <v>446.899998838737</v>
       </c>
     </row>
     <row r="13">
@@ -1704,7 +1704,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C13" t="n">
         <v>0.1100885092839709</v>
@@ -1713,22 +1713,22 @@
         <v>23.20629326267445</v>
       </c>
       <c r="E13" t="n">
+        <v>31.53270060522925</v>
+      </c>
+      <c r="F13" t="n">
         <v>2.844453325716284</v>
       </c>
-      <c r="F13" t="n">
-        <v>31.53270060522925</v>
-      </c>
       <c r="G13" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>444.3647054047347</v>
+        <v>20000</v>
       </c>
       <c r="I13" t="n">
         <v>40.84252681410977</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4583333333333333</v>
+        <v>444.3647054047347</v>
       </c>
     </row>
     <row r="14">
@@ -1736,7 +1736,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C14" t="n">
         <v>0.1100027141773036</v>
@@ -1745,22 +1745,22 @@
         <v>23.28019980253181</v>
       </c>
       <c r="E14" t="n">
+        <v>31.51760738475335</v>
+      </c>
+      <c r="F14" t="n">
         <v>2.847290921207419</v>
       </c>
-      <c r="F14" t="n">
-        <v>31.51760738475335</v>
-      </c>
       <c r="G14" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>412.7627433998259</v>
+        <v>20000</v>
       </c>
       <c r="I14" t="n">
         <v>41.03929290972543</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>412.7627433998259</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C15" t="n">
         <v>0.1098680557526745</v>
@@ -1777,22 +1777,22 @@
         <v>23.36335589079544</v>
       </c>
       <c r="E15" t="n">
+        <v>31.50220149991215</v>
+      </c>
+      <c r="F15" t="n">
         <v>2.850300367546368</v>
       </c>
-      <c r="F15" t="n">
-        <v>31.50220149991215</v>
-      </c>
       <c r="G15" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>372.7989444555315</v>
+        <v>20000</v>
       </c>
       <c r="I15" t="n">
         <v>41.20561450816022</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5416666666666666</v>
+        <v>372.7989444555315</v>
       </c>
     </row>
     <row r="16">
@@ -1800,7 +1800,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C16" t="n">
         <v>0.109768846143687</v>
@@ -1809,22 +1809,22 @@
         <v>23.45443508234171</v>
       </c>
       <c r="E16" t="n">
+        <v>31.48697447413244</v>
+      </c>
+      <c r="F16" t="n">
         <v>2.853296929765249</v>
       </c>
-      <c r="F16" t="n">
-        <v>31.48697447413244</v>
-      </c>
       <c r="G16" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>350.6566110000063</v>
+        <v>20000</v>
       </c>
       <c r="I16" t="n">
         <v>41.34522757112066</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5833333333333334</v>
+        <v>350.6566110000063</v>
       </c>
     </row>
     <row r="17">
@@ -1832,7 +1832,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="C17" t="n">
         <v>0.1097569480902991</v>
@@ -1841,22 +1841,22 @@
         <v>23.55262957367191</v>
       </c>
       <c r="E17" t="n">
+        <v>31.47121328362297</v>
+      </c>
+      <c r="F17" t="n">
         <v>2.856253685440939</v>
       </c>
-      <c r="F17" t="n">
-        <v>31.47121328362297</v>
-      </c>
       <c r="G17" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>360.8428576881706</v>
+        <v>20000</v>
       </c>
       <c r="I17" t="n">
         <v>41.46173837230771</v>
       </c>
       <c r="J17" t="n">
-        <v>0.625</v>
+        <v>360.8428576881706</v>
       </c>
     </row>
     <row r="18">
@@ -1864,7 +1864,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18" t="n">
         <v>0.1098194548593358</v>
@@ -1873,22 +1873,22 @@
         <v>23.65765405993643</v>
       </c>
       <c r="E18" t="n">
+        <v>31.45367560262538</v>
+      </c>
+      <c r="F18" t="n">
         <v>2.859270895480758</v>
       </c>
-      <c r="F18" t="n">
-        <v>31.45367560262538</v>
-      </c>
       <c r="G18" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>396.68390513244</v>
+        <v>20000</v>
       </c>
       <c r="I18" t="n">
         <v>41.55849659441635</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6666666666666666</v>
+        <v>396.68390513244</v>
       </c>
     </row>
     <row r="19">
@@ -1896,7 +1896,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C19" t="n">
         <v>0.1098775693177347</v>
@@ -1905,22 +1905,22 @@
         <v>23.76940536345186</v>
       </c>
       <c r="E19" t="n">
+        <v>31.43356633545597</v>
+      </c>
+      <c r="F19" t="n">
         <v>2.862465491562439</v>
       </c>
-      <c r="F19" t="n">
-        <v>31.43356633545597</v>
-      </c>
       <c r="G19" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>434.6975767288527</v>
+        <v>20000</v>
       </c>
       <c r="I19" t="n">
         <v>41.63852599249233</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7083333333333334</v>
+        <v>434.6975767288527</v>
       </c>
     </row>
     <row r="20">
@@ -1928,7 +1928,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C20" t="n">
         <v>0.1098471030799004</v>
@@ -1937,22 +1937,22 @@
         <v>23.88747127243349</v>
       </c>
       <c r="E20" t="n">
+        <v>31.41118279447414</v>
+      </c>
+      <c r="F20" t="n">
         <v>2.865868831567127</v>
       </c>
-      <c r="F20" t="n">
-        <v>31.41118279447414</v>
-      </c>
       <c r="G20" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>449.9782457325439</v>
+        <v>20000</v>
       </c>
       <c r="I20" t="n">
         <v>41.70449728402907</v>
       </c>
       <c r="J20" t="n">
-        <v>0.75</v>
+        <v>449.9782457325439</v>
       </c>
     </row>
     <row r="21">
@@ -1960,7 +1960,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C21" t="n">
         <v>0.1096954637329521</v>
@@ -1969,22 +1969,22 @@
         <v>24.01085654219837</v>
       </c>
       <c r="E21" t="n">
+        <v>31.38785782069859</v>
+      </c>
+      <c r="F21" t="n">
         <v>2.869390246139227</v>
       </c>
-      <c r="F21" t="n">
-        <v>31.38785782069859</v>
-      </c>
       <c r="G21" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>432.5143920078559</v>
+        <v>20000</v>
       </c>
       <c r="I21" t="n">
         <v>41.75872978582331</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7916666666666666</v>
+        <v>432.5143920078559</v>
       </c>
     </row>
     <row r="22">
@@ -1992,7 +1992,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C22" t="n">
         <v>0.1094482693062964</v>
@@ -2001,22 +2001,22 @@
         <v>24.138105002465</v>
       </c>
       <c r="E22" t="n">
+        <v>31.36521533262172</v>
+      </c>
+      <c r="F22" t="n">
         <v>2.872868349763652</v>
       </c>
-      <c r="F22" t="n">
-        <v>31.36521533262172</v>
-      </c>
       <c r="G22" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>393.7479048574532</v>
+        <v>20000</v>
       </c>
       <c r="I22" t="n">
         <v>41.80321103048601</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8333333333333334</v>
+        <v>393.7479048574532</v>
       </c>
     </row>
     <row r="23">
@@ -2024,7 +2024,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="C23" t="n">
         <v>0.1091789958044951</v>
@@ -2033,22 +2033,22 @@
         <v>24.2676989479305</v>
       </c>
       <c r="E23" t="n">
+        <v>31.34424509794079</v>
+      </c>
+      <c r="F23" t="n">
         <v>2.876177431682011</v>
       </c>
-      <c r="F23" t="n">
-        <v>31.34424509794079</v>
-      </c>
       <c r="G23" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>359.0776373421028</v>
+        <v>20000</v>
       </c>
       <c r="I23" t="n">
         <v>41.83962635868411</v>
       </c>
       <c r="J23" t="n">
-        <v>0.875</v>
+        <v>359.0776373421028</v>
       </c>
     </row>
     <row r="24">
@@ -2056,7 +2056,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C24" t="n">
         <v>0.1089703787623468</v>
@@ -2065,22 +2065,22 @@
         <v>24.3985424427225</v>
       </c>
       <c r="E24" t="n">
+        <v>31.32475919576521</v>
+      </c>
+      <c r="F24" t="n">
         <v>2.87931004666317</v>
       </c>
-      <c r="F24" t="n">
-        <v>31.32475919576521</v>
-      </c>
       <c r="G24" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>351.2186997265921</v>
+        <v>20000</v>
       </c>
       <c r="I24" t="n">
         <v>41.86939289470547</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9166666666666666</v>
+        <v>351.2186997265921</v>
       </c>
     </row>
     <row r="25">
@@ -2088,7 +2088,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="C25" t="n">
         <v>0.1088585900917325</v>
@@ -2097,22 +2097,22 @@
         <v>24.53015344451713</v>
       </c>
       <c r="E25" t="n">
+        <v>31.30563174968108</v>
+      </c>
+      <c r="F25" t="n">
         <v>2.882367131376776</v>
       </c>
-      <c r="F25" t="n">
-        <v>31.30563174968108</v>
-      </c>
       <c r="G25" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>375.3200754856339</v>
+        <v>20000</v>
       </c>
       <c r="I25" t="n">
         <v>41.89369423113856</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9583333333333334</v>
+        <v>375.3200754856339</v>
       </c>
     </row>
     <row r="26">
@@ -2129,25 +2129,25 @@
         <v>24.66245668266962</v>
       </c>
       <c r="E26" t="n">
+        <v>31.28564513137534</v>
+      </c>
+      <c r="F26" t="n">
         <v>2.885471756882333</v>
       </c>
-      <c r="F26" t="n">
-        <v>31.28564513137534</v>
-      </c>
       <c r="G26" t="n">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>415.5911334203973</v>
+        <v>20000</v>
       </c>
       <c r="I26" t="n">
         <v>41.91351357662474</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>415.5911334203973</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>